--- a/biology/Botanique/Larrea/Larrea.xlsx
+++ b/biology/Botanique/Larrea/Larrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Larrea  est un genre de plantes de la famille des Zygophyllaceae. Il est composé de 5 espèces d'arbustes à feuillage persistant, originaires du continent américain. Le nom de genre honore le scientifique espagnol J.A. de Larrea[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Larrea  est un genre de plantes de la famille des Zygophyllaceae. Il est composé de 5 espèces d'arbustes à feuillage persistant, originaires du continent américain. Le nom de genre honore le scientifique espagnol J.A. de Larrea.
 L'espèce la plus connue est le créosotier (L. tridentata) répandue dans le Sud des États-Unis et dans le Nord du Mexique.
 Les espèces originaires d'Amérique du Sud sont appelées localement jarilla.
 </t>
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Larrea ameghinoi
 Larrea cuneifolia
